--- a/split_data/standard_in/TaiChung/mobile.xlsx
+++ b/split_data/standard_in/TaiChung/mobile.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太堤東路新仁橋附近</t>
+          <t>太堤東路15號附近</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太堤東路15號附近</t>
+          <t>太堤東路近光興路1215巷附近</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -2220,18 +2220,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太堤東路37號附近</t>
+          <t>光興路1422號附近</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>南往北</t>
+          <t>雙向</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2254,18 +2254,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太堤東路近光興路1215巷附近(路燈編號09444</t>
+          <t>光興路1521號附近</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>號旁)南往北</t>
+          <t>雙向</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光興路1521號附近</t>
+          <t>光興路1876號附近</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2299,7 +2299,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>北往南</t>
+          <t>雙向</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
